--- a/biology/Botanique/Pin_sylvestre_de_Hanau/Pin_sylvestre_de_Hanau.xlsx
+++ b/biology/Botanique/Pin_sylvestre_de_Hanau/Pin_sylvestre_de_Hanau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pin sylvestre de Hanau est une variété locale (écotype) de Pinus sylvestris que l'on rencontre dans le pays de Bitche (Moselle) et les forêts du parc naturel régional des Vosges du Nord.
 </t>
